--- a/data/topology_ig107.xlsx
+++ b/data/topology_ig107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D025D19-F5B7-49E3-828C-212B7835F222}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C62F0B1-F222-4116-8244-A6A165B5EDF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="44295" yWindow="2010" windowWidth="14340" windowHeight="7245" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="219">
   <si>
     <t>DK1</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>topologyType</t>
+  </si>
+  <si>
+    <t>ntcMarket</t>
   </si>
 </sst>
 </file>
@@ -1145,21 +1151,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AC1CD3-5B58-418C-B7E6-C6C1748DD1AD}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1172,8 +1178,11 @@
       <c r="D1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -1185,6 +1194,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1203,15 +1215,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -1483,7 +1495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -1806,13 +1818,13 @@
       <selection activeCell="A2" sqref="A2:A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2526,7 +2538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -2876,7 +2888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>176</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2946,7 +2958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -2974,7 +2986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -2988,7 +3000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>180</v>
       </c>
@@ -3023,14 +3035,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -3096,7 +3108,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -3118,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -3129,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -3140,7 +3152,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -3151,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -3173,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -3200,13 +3212,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3230,7 +3242,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3238,7 +3250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -3262,7 +3274,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3278,7 +3290,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -3286,7 +3298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -3294,7 +3306,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -3326,7 +3338,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -3334,7 +3346,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -3342,7 +3354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3358,7 +3370,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>111</v>
       </c>

--- a/data/topology_ig107.xlsx
+++ b/data/topology_ig107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="597" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C62F0B1-F222-4116-8244-A6A165B5EDF7}"/>
+  <xr:revisionPtr revIDLastSave="643" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB9E6CD-C24E-41E9-A7FA-C5E4E593EEFF}"/>
   <bookViews>
-    <workbookView xWindow="44295" yWindow="2010" windowWidth="14340" windowHeight="7245" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="227">
   <si>
     <t>DK1</t>
   </si>
@@ -690,13 +690,37 @@
     <t>topology_ig107</t>
   </si>
   <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
     <t>topologyType</t>
   </si>
   <si>
-    <t>ntcMarket</t>
+    <t>NtcMarket</t>
+  </si>
+  <si>
+    <t>NO2_ND-NO2A</t>
+  </si>
+  <si>
+    <t>NO2_NK-NO2A</t>
+  </si>
+  <si>
+    <t>["NO2_ND-NO2"]</t>
+  </si>
+  <si>
+    <t>["NO2_NK-NO2"]</t>
+  </si>
+  <si>
+    <t>NO2A-NO2_ND</t>
+  </si>
+  <si>
+    <t>NO2A-NO2_NK</t>
+  </si>
+  <si>
+    <t>["NO2-NO2_ND"]</t>
+  </si>
+  <si>
+    <t>["NO2-NO2_NK"]</t>
+  </si>
+  <si>
+    <t>2-07-2025</t>
   </si>
 </sst>
 </file>
@@ -816,10 +840,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}" name="Table1" displayName="Table1" ref="A1:D1048561" totalsRowShown="0">
-  <autoFilter ref="A1:D1048561" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
-    <sortCondition ref="A1:A1048561"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}" name="Table1" displayName="Table1" ref="A1:D1048565" totalsRowShown="0">
+  <autoFilter ref="A1:D1048565" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
+    <sortCondition ref="A1:A1048565"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{45520633-A776-43BF-907C-2FF48DC85F39}" name="name"/>
@@ -1154,7 +1178,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,7 +1203,7 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1187,16 +1211,16 @@
         <v>215</v>
       </c>
       <c r="B2" s="3">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1236,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1667,7 +1691,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1684,7 +1708,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>184</v>
@@ -1812,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6106AD-B8E1-4460-AC6F-62DB62A8D837}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A85"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,27 +2312,27 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>47</v>
@@ -2316,27 +2340,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
         <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>181</v>
       </c>
       <c r="D37" t="s">
         <v>47</v>
@@ -2344,55 +2368,55 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -2400,83 +2424,83 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -2484,13 +2508,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -2498,13 +2522,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
         <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
@@ -2512,13 +2536,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
@@ -2526,10 +2550,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -2540,13 +2564,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
@@ -2554,13 +2578,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -2568,13 +2592,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
@@ -2582,13 +2606,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>50</v>
@@ -2596,13 +2620,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
@@ -2610,13 +2634,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
@@ -2624,10 +2648,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2638,13 +2662,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
@@ -2652,13 +2676,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>50</v>
@@ -2666,13 +2690,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
         <v>20</v>
-      </c>
-      <c r="C61" t="s">
-        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
@@ -2680,69 +2704,69 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
         <v>47</v>
@@ -2750,41 +2774,41 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
         <v>47</v>
@@ -2792,13 +2816,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>47</v>
@@ -2806,111 +2830,111 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s">
         <v>45</v>
@@ -2918,69 +2942,69 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
         <v>24</v>
       </c>
-      <c r="C81" t="s">
-        <v>4</v>
-      </c>
       <c r="D81" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
         <v>24</v>
       </c>
-      <c r="C82" t="s">
-        <v>22</v>
-      </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
         <v>24</v>
-      </c>
-      <c r="C83" t="s">
-        <v>152</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -2988,13 +3012,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
         <v>45</v>
@@ -3002,15 +3026,71 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
       </c>
       <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
         <v>137</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D89" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3206,10 +3286,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB1DB88-C101-4427-8092-C8804A19573F}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3386,7 +3466,40 @@
         <v>205</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/topology_ig107.xlsx
+++ b/data/topology_ig107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="643" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB9E6CD-C24E-41E9-A7FA-C5E4E593EEFF}"/>
+  <xr:revisionPtr revIDLastSave="648" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6075E8B8-69A1-40B4-A464-DC94FAC1F3B1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="226">
   <si>
     <t>DK1</t>
   </si>
@@ -718,17 +718,15 @@
   </si>
   <si>
     <t>["NO2-NO2_NK"]</t>
-  </si>
-  <si>
-    <t>2-07-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -787,12 +785,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1184,8 +1183,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1193,10 +1192,10 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D1" t="s">
@@ -1210,11 +1209,11 @@
       <c r="A2" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="3">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>226</v>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45707</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
@@ -1228,6 +1227,7 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D849FDEE-CCBB-4171-90DA-0AFD6AD68A79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
         <v>184</v>
@@ -3382,7 +3382,7 @@
       <c r="A11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>128</v>
       </c>
     </row>

--- a/data/topology_ig107.xlsx
+++ b/data/topology_ig107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="648" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6075E8B8-69A1-40B4-A464-DC94FAC1F3B1}"/>
+  <xr:revisionPtr revIDLastSave="701" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9428A281-D023-4D2C-9BC1-3F3428A43D5A}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="39180" yWindow="870" windowWidth="36270" windowHeight="16770" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="231">
   <si>
     <t>DK1</t>
   </si>
@@ -648,12 +648,6 @@
     <t>["SE4-SE4_BC","SE4_BC-SE4"]</t>
   </si>
   <si>
-    <t>["DK1_KS-DK1"]</t>
-  </si>
-  <si>
-    <t>["SE3_KS-SE3"]</t>
-  </si>
-  <si>
     <t>["DK1_SK-DK1"]</t>
   </si>
   <si>
@@ -718,6 +712,27 @@
   </si>
   <si>
     <t>["NO2-NO2_NK"]</t>
+  </si>
+  <si>
+    <t>MappingRule</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>ReceivingEnd</t>
+  </si>
+  <si>
+    <t>["DK1-DK1_KS","SE3_KS-SE3","SE3-SE3_KS","DK1_KS-DK1"]</t>
+  </si>
+  <si>
+    <t>["SE3-SE3_KS","DK1_KS-DK1","DK1-DK1_KS","SE3_KS-SE3"]</t>
+  </si>
+  <si>
+    <t>MaxAtc</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
   </si>
 </sst>
 </file>
@@ -821,11 +836,15 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BE7856C4-2D11-4D8C-8930-88EF7EA43D5B}" name="Table2" displayName="Table2" ref="A1:E1048563" totalsRowShown="0">
   <autoFilter ref="A1:E1048563" xr:uid="{BE7856C4-2D11-4D8C-8930-88EF7EA43D5B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
-    <sortCondition ref="A1:A1048563"/>
+    <sortCondition ref="C1:C1048563"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{251EA758-4C3B-4699-AB7F-010959FBB42B}" name="shortName"/>
@@ -839,16 +858,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}" name="Table1" displayName="Table1" ref="A1:D1048565" totalsRowShown="0">
-  <autoFilter ref="A1:D1048565" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}" name="Table1" displayName="Table1" ref="A1:E1048565" totalsRowShown="0">
+  <autoFilter ref="A1:E1048565" xr:uid="{381C518C-F7D3-4D01-B7CD-B5D6164BCA72}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
     <sortCondition ref="A1:A1048565"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{45520633-A776-43BF-907C-2FF48DC85F39}" name="name"/>
     <tableColumn id="2" xr3:uid="{BB32FC5B-A2F0-423E-AB95-4CBC2C643FEB}" name="from"/>
     <tableColumn id="3" xr3:uid="{33D098E8-53F1-4287-A989-A57AA430FD41}" name="to"/>
     <tableColumn id="4" xr3:uid="{55AA1F7E-110B-41DF-96D9-AC7FE1BA4FF9}" name="type"/>
+    <tableColumn id="5" xr3:uid="{98CA429B-4DBC-455B-B976-A671D8E6A9DE}" name="MaxAtc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -867,11 +887,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0D669590-ACBE-4F1D-B632-77F6029B6276}" name="Table4" displayName="Table4" ref="A1:B1048574" totalsRowShown="0">
-  <autoFilter ref="A1:B1048574" xr:uid="{0D669590-ACBE-4F1D-B632-77F6029B6276}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0D669590-ACBE-4F1D-B632-77F6029B6276}" name="Table4" displayName="Table4" ref="A1:C1048574" totalsRowShown="0">
+  <autoFilter ref="A1:C1048574" xr:uid="{0D669590-ACBE-4F1D-B632-77F6029B6276}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E4CECB63-89FD-4459-AB1C-616573A3488E}" name="name"/>
-    <tableColumn id="2" xr3:uid="{259271FB-E42D-455B-8FB0-37E795851CFF}" name="mappedBorders"/>
+    <tableColumn id="3" xr3:uid="{7FFB24EA-B633-4576-9837-A672ED8F62AC}" name="mappedBorders"/>
+    <tableColumn id="2" xr3:uid="{259271FB-E42D-455B-8FB0-37E795851CFF}" name="MappingRule"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1180,15 +1201,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1196,30 +1217,30 @@
         <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>45707</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1236,18 +1257,18 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1264,7 +1285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1281,97 +1302,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1383,15 +1404,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1400,12 +1421,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1417,15 +1438,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -1434,12 +1455,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1451,12 +1472,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1468,100 +1489,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1570,15 +1591,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -1587,15 +1608,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -1604,15 +1625,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -1621,15 +1642,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -1638,12 +1659,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1655,12 +1676,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1672,12 +1693,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1689,12 +1710,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1706,12 +1727,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1723,15 +1744,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -1740,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -1774,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -1791,7 +1812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -1808,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -1836,19 +1857,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6106AD-B8E1-4460-AC6F-62DB62A8D837}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D70" sqref="D70:D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1861,8 +1882,11 @@
       <c r="D1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1875,8 +1899,11 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -1889,8 +1916,11 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -1903,8 +1933,11 @@
       <c r="D4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -1917,8 +1950,11 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1931,8 +1967,11 @@
       <c r="D6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1945,8 +1984,11 @@
       <c r="D7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1959,8 +2001,11 @@
       <c r="D8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1973,8 +2018,11 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1987,8 +2035,11 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2001,8 +2052,11 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2015,8 +2069,11 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -2029,8 +2086,11 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -2043,8 +2103,11 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2057,8 +2120,11 @@
       <c r="D15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2071,8 +2137,11 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -2085,8 +2154,11 @@
       <c r="D17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -2099,8 +2171,11 @@
       <c r="D18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2113,8 +2188,11 @@
       <c r="D19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -2127,8 +2205,11 @@
       <c r="D20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2141,8 +2222,11 @@
       <c r="D21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -2155,8 +2239,11 @@
       <c r="D22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -2169,8 +2256,11 @@
       <c r="D23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -2183,8 +2273,11 @@
       <c r="D24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2197,8 +2290,11 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2211,8 +2307,11 @@
       <c r="D26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2225,8 +2324,11 @@
       <c r="D27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2239,8 +2341,11 @@
       <c r="D28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2253,8 +2358,11 @@
       <c r="D29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2267,8 +2375,11 @@
       <c r="D30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2281,8 +2392,11 @@
       <c r="D31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -2295,8 +2409,11 @@
       <c r="D32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -2309,10 +2426,13 @@
       <c r="D33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>147</v>
@@ -2323,10 +2443,13 @@
       <c r="D34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
         <v>149</v>
@@ -2337,8 +2460,11 @@
       <c r="D35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -2351,8 +2477,11 @@
       <c r="D36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2365,8 +2494,11 @@
       <c r="D37" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>113</v>
       </c>
@@ -2379,8 +2511,11 @@
       <c r="D38" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2393,8 +2528,11 @@
       <c r="D39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -2407,8 +2545,11 @@
       <c r="D40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>169</v>
       </c>
@@ -2421,8 +2562,11 @@
       <c r="D41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -2435,10 +2579,13 @@
       <c r="D42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -2449,10 +2596,13 @@
       <c r="D43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -2463,8 +2613,11 @@
       <c r="D44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -2477,8 +2630,11 @@
       <c r="D45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2491,8 +2647,11 @@
       <c r="D46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2505,8 +2664,11 @@
       <c r="D47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2519,8 +2681,11 @@
       <c r="D48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2533,8 +2698,11 @@
       <c r="D49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2547,8 +2715,11 @@
       <c r="D50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2561,8 +2732,11 @@
       <c r="D51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -2575,8 +2749,11 @@
       <c r="D52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -2589,8 +2766,11 @@
       <c r="D53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -2603,8 +2783,11 @@
       <c r="D54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -2617,8 +2800,11 @@
       <c r="D55" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -2631,8 +2817,11 @@
       <c r="D56" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -2645,8 +2834,11 @@
       <c r="D57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -2659,8 +2851,11 @@
       <c r="D58" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2673,8 +2868,11 @@
       <c r="D59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2885,11 @@
       <c r="D60" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2701,8 +2902,11 @@
       <c r="D61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2715,8 +2919,11 @@
       <c r="D62" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2729,8 +2936,11 @@
       <c r="D63" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -2743,8 +2953,11 @@
       <c r="D64" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2757,8 +2970,11 @@
       <c r="D65" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -2771,13 +2987,16 @@
       <c r="D66" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -2785,8 +3004,11 @@
       <c r="D67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -2799,8 +3021,11 @@
       <c r="D68" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -2813,8 +3038,11 @@
       <c r="D69" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -2827,8 +3055,11 @@
       <c r="D70" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -2841,8 +3072,11 @@
       <c r="D71" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -2855,8 +3089,11 @@
       <c r="D72" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -2869,8 +3106,11 @@
       <c r="D73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -2883,8 +3123,11 @@
       <c r="D74" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -2897,8 +3140,11 @@
       <c r="D75" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -2911,8 +3157,11 @@
       <c r="D76" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -2925,22 +3174,28 @@
       <c r="D77" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2953,8 +3208,11 @@
       <c r="D79" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -2967,8 +3225,11 @@
       <c r="D80" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -2981,8 +3242,11 @@
       <c r="D81" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -2995,8 +3259,11 @@
       <c r="D82" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>177</v>
       </c>
@@ -3009,8 +3276,11 @@
       <c r="D83" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3023,8 +3293,11 @@
       <c r="D84" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -3037,8 +3310,11 @@
       <c r="D85" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3051,8 +3327,11 @@
       <c r="D86" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -3065,8 +3344,11 @@
       <c r="D87" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -3079,8 +3361,11 @@
       <c r="D88" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -3092,6 +3377,9 @@
       </c>
       <c r="D89" t="s">
         <v>45</v>
+      </c>
+      <c r="E89">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -3112,17 +3400,17 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="52.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3133,7 +3421,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -3144,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -3155,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -3166,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3177,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -3188,7 +3476,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -3199,7 +3487,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -3210,18 +3498,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -3232,7 +3520,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -3240,10 +3528,10 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -3254,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -3265,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -3286,215 +3574,291 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB1DB88-C101-4427-8092-C8804A19573F}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" t="s">
         <v>218</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>223</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>225</v>
       </c>
     </row>
